--- a/data/trans_orig/Q5401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7599</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3774</v>
+        <v>3639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15010</v>
+        <v>14912</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02597156530711729</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01289807982405505</v>
+        <v>0.01243854719533744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05130237028737927</v>
+        <v>0.05096521506695374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -765,19 +765,19 @@
         <v>12950</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7498</v>
+        <v>7483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20973</v>
+        <v>21465</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03776292004555145</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02186290821386479</v>
+        <v>0.02182139615402269</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06115675215360506</v>
+        <v>0.06259218441468556</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -786,19 +786,19 @@
         <v>20549</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13704</v>
+        <v>12955</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30700</v>
+        <v>29949</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03233434779623583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02156300892244557</v>
+        <v>0.02038434240195059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04830710289743745</v>
+        <v>0.04712466366063661</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>30974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20966</v>
+        <v>21657</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42811</v>
+        <v>42601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1058632693554819</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07165692890134562</v>
+        <v>0.07401918903212677</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1463215511086068</v>
+        <v>0.1456040335600019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -836,19 +836,19 @@
         <v>46675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35497</v>
+        <v>36027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57983</v>
+        <v>58906</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1361037126036211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1035087176994699</v>
+        <v>0.1050548033298785</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1690794083497037</v>
+        <v>0.1717713538557334</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -857,19 +857,19 @@
         <v>77648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61155</v>
+        <v>62442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93062</v>
+        <v>94246</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1221814420362908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09622908142602751</v>
+        <v>0.0982531631486125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.146434884402436</v>
+        <v>0.1482985922120856</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>254010</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>241384</v>
+        <v>242692</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>264883</v>
+        <v>265432</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8681651653374008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8250100118326499</v>
+        <v>0.8294813691980536</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9053276438451016</v>
+        <v>0.9072031224241034</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>307</v>
@@ -907,19 +907,19 @@
         <v>283309</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>270010</v>
+        <v>270554</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>295777</v>
+        <v>296056</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8261333673508274</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7873526701196881</v>
+        <v>0.788939527216193</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8624893308947129</v>
+        <v>0.8633036755794311</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>571</v>
@@ -928,19 +928,19 @@
         <v>537320</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>520255</v>
+        <v>519172</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>554849</v>
+        <v>555535</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8454842101674733</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8186320750894165</v>
+        <v>0.8169293245561215</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8730677741529094</v>
+        <v>0.8741463829094962</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>22207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14693</v>
+        <v>15377</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33035</v>
+        <v>32207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1058050051557565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07000473232127478</v>
+        <v>0.0732645001372121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1573986686518135</v>
+        <v>0.1534539722683934</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -1053,19 +1053,19 @@
         <v>36010</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25484</v>
+        <v>26378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49617</v>
+        <v>49751</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.107843928293326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07632183292435582</v>
+        <v>0.078999217045226</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.148594446640666</v>
+        <v>0.1489964965126905</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -1074,19 +1074,19 @@
         <v>58217</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>44652</v>
+        <v>44090</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>74173</v>
+        <v>74082</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1070569801470273</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08211192352378324</v>
+        <v>0.08107852289051226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1363993163060615</v>
+        <v>0.1362323828754224</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>53249</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42001</v>
+        <v>41461</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>67082</v>
+        <v>66218</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2537079497169522</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2001156502093897</v>
+        <v>0.197543926559497</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3196173403406904</v>
+        <v>0.3155007827330986</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>96</v>
@@ -1124,19 +1124,19 @@
         <v>111277</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>93500</v>
+        <v>94208</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>132207</v>
+        <v>129588</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3332570112860992</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2800162709740185</v>
+        <v>0.2821372630225992</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3959378267041992</v>
+        <v>0.3880961964598622</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>153</v>
@@ -1145,19 +1145,19 @@
         <v>164526</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>144136</v>
+        <v>143258</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>187526</v>
+        <v>184931</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3025540458882636</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.265057347361257</v>
+        <v>0.2634427991218903</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3448497480771942</v>
+        <v>0.3400773541429938</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>134427</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118515</v>
+        <v>120626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146408</v>
+        <v>148612</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6404870451272914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5646698710935023</v>
+        <v>0.5747292396131291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6975703595555441</v>
+        <v>0.708070232956031</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>162</v>
@@ -1195,19 +1195,19 @@
         <v>186621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>167723</v>
+        <v>168555</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>205647</v>
+        <v>204423</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5588990604205748</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5023025675951773</v>
+        <v>0.5047949694870215</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6158803782804555</v>
+        <v>0.6122125747849074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>301</v>
@@ -1216,19 +1216,19 @@
         <v>321048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>296219</v>
+        <v>297465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>343688</v>
+        <v>345350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5903889739647091</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5447288862866284</v>
+        <v>0.5470204598397026</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6320214433671183</v>
+        <v>0.6350785338853496</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>29806</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21270</v>
+        <v>21688</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41682</v>
+        <v>41149</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05931846602711142</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04233154225736865</v>
+        <v>0.04316393672243903</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08295476767335691</v>
+        <v>0.08189369985587937</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -1341,19 +1341,19 @@
         <v>48960</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35819</v>
+        <v>37059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65019</v>
+        <v>65040</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07233614551362993</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05292074183494461</v>
+        <v>0.05475229406411029</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09606210838512809</v>
+        <v>0.09609313802415333</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -1362,19 +1362,19 @@
         <v>78766</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62499</v>
+        <v>62533</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>96668</v>
+        <v>96481</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06678972219320285</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05299672259351646</v>
+        <v>0.0530254378908319</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0819702105084536</v>
+        <v>0.081811293491312</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>84223</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68586</v>
+        <v>69075</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102466</v>
+        <v>103252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1676188681038333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1364988289842348</v>
+        <v>0.1374718465026886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2039253649156608</v>
+        <v>0.2054901272644824</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -1412,19 +1412,19 @@
         <v>157952</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134168</v>
+        <v>136621</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179763</v>
+        <v>180706</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2333658042536964</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1982270882978441</v>
+        <v>0.201850240510784</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.265590785662426</v>
+        <v>0.266983415648398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>234</v>
@@ -1433,19 +1433,19 @@
         <v>242175</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>215696</v>
+        <v>216785</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>271637</v>
+        <v>270684</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2053531050406083</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1829007391368441</v>
+        <v>0.1838241909055998</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2303355969406718</v>
+        <v>0.2295281752619562</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>388438</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>368769</v>
+        <v>367864</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>406832</v>
+        <v>405105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7730626658690553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7339173579621318</v>
+        <v>0.7321171344843025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8096709052238545</v>
+        <v>0.8062339847428373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>469</v>
@@ -1483,19 +1483,19 @@
         <v>469930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445142</v>
+        <v>444283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>495122</v>
+        <v>493120</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6942980502326737</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6576742286959046</v>
+        <v>0.6564059367411272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7315172164839109</v>
+        <v>0.7285604723743735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>872</v>
@@ -1504,19 +1504,19 @@
         <v>858368</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>826418</v>
+        <v>829621</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>889753</v>
+        <v>888570</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7278571727661889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.700765285243385</v>
+        <v>0.7034815820812487</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7544702547005391</v>
+        <v>0.75346700022295</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>14259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7419</v>
+        <v>7993</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24190</v>
+        <v>24987</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04602910954188332</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02394806930440297</v>
+        <v>0.02580110009893996</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07808754526592707</v>
+        <v>0.08065850787007002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -1867,19 +1867,19 @@
         <v>14586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7986</v>
+        <v>7952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24366</v>
+        <v>23672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04120293379643622</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02256042480303267</v>
+        <v>0.02246378502436199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06883132126544424</v>
+        <v>0.06686970703613516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -1888,19 +1888,19 @@
         <v>28845</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18951</v>
+        <v>19494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40721</v>
+        <v>41772</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04345530302111159</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02855027223638407</v>
+        <v>0.02936783775091323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06134716403752295</v>
+        <v>0.06292977276856937</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>27118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18565</v>
+        <v>18752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39655</v>
+        <v>40116</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08753897324881256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05992719106469049</v>
+        <v>0.06053107798801644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1280084259519477</v>
+        <v>0.1294964410497781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -1938,19 +1938,19 @@
         <v>48271</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37005</v>
+        <v>35881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62003</v>
+        <v>61323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1363601738804114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1045353340925859</v>
+        <v>0.1013612602953926</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1751516506008807</v>
+        <v>0.1732295007605076</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -1959,19 +1959,19 @@
         <v>75389</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59934</v>
+        <v>59466</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91559</v>
+        <v>94816</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1135753903138262</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0902918729322339</v>
+        <v>0.0895871297271376</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1379354220125771</v>
+        <v>0.1428428108826544</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>268408</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>253826</v>
+        <v>253725</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>278692</v>
+        <v>279555</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8664319172093041</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8193597867404101</v>
+        <v>0.8190327106043915</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8996274014073374</v>
+        <v>0.9024148317038126</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>282</v>
@@ -2009,19 +2009,19 @@
         <v>291139</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>274544</v>
+        <v>276682</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>304564</v>
+        <v>305293</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8224368923231524</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7755576464448615</v>
+        <v>0.7815959448722792</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8603609191585593</v>
+        <v>0.862420228202137</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>526</v>
@@ -2030,19 +2030,19 @@
         <v>559548</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>541625</v>
+        <v>536905</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>580498</v>
+        <v>576186</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8429693066650622</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8159688529257189</v>
+        <v>0.8088569095418252</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8745305195637991</v>
+        <v>0.8680348817538975</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>40671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30276</v>
+        <v>29353</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55225</v>
+        <v>56436</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1627816950403693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1211760172281642</v>
+        <v>0.1174815471837249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2210320126120381</v>
+        <v>0.2258785088559332</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -2155,19 +2155,19 @@
         <v>81021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65053</v>
+        <v>64538</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98945</v>
+        <v>99000</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.208291865466632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1672409933837478</v>
+        <v>0.1659171967463056</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2543701362649055</v>
+        <v>0.2545131349076951</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -2176,19 +2176,19 @@
         <v>121692</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>103054</v>
+        <v>103184</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>146702</v>
+        <v>146102</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1904925173270334</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1613166359314497</v>
+        <v>0.1615196854586718</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2296422495914617</v>
+        <v>0.2287031995212928</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>56591</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>43098</v>
+        <v>43703</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>71704</v>
+        <v>71838</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2264990286250974</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1724961807690334</v>
+        <v>0.1749179709137031</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2869866379887285</v>
+        <v>0.2875234237107298</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>95</v>
@@ -2226,19 +2226,19 @@
         <v>104539</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>88688</v>
+        <v>87879</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>124288</v>
+        <v>123669</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2687530652060486</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2280010921503682</v>
+        <v>0.2259234671378157</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3195236104557242</v>
+        <v>0.3179320760783093</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>143</v>
@@ -2247,19 +2247,19 @@
         <v>161130</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>137470</v>
+        <v>138787</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>183582</v>
+        <v>186890</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2522272139432796</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2151906938412544</v>
+        <v>0.2172518700220237</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2873717012863642</v>
+        <v>0.2925502046682439</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>152589</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136768</v>
+        <v>135846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168688</v>
+        <v>168279</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6107192763345334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.547396769118792</v>
+        <v>0.5437066318341088</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6751562490356613</v>
+        <v>0.6735163843028241</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -2297,19 +2297,19 @@
         <v>203419</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182415</v>
+        <v>182087</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223754</v>
+        <v>223107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5229550693273194</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4689596031641724</v>
+        <v>0.4681161804753519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5752352136422627</v>
+        <v>0.5735718403104351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>321</v>
@@ -2318,19 +2318,19 @@
         <v>356007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>329854</v>
+        <v>326487</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>383639</v>
+        <v>383836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5572802687296869</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5163410152352963</v>
+        <v>0.5110702075476846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6005336965651538</v>
+        <v>0.6008421597555537</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>54930</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41084</v>
+        <v>42349</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71975</v>
+        <v>72401</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0981534888294642</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07341173984082779</v>
+        <v>0.07567154546807385</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1286104641242176</v>
+        <v>0.1293721925639718</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -2443,19 +2443,19 @@
         <v>95607</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77076</v>
+        <v>77879</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117777</v>
+        <v>114552</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1286810930043152</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1037393910890146</v>
+        <v>0.1048203672243406</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1585213889195453</v>
+        <v>0.1541796475383854</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>135</v>
@@ -2464,19 +2464,19 @@
         <v>150537</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>128967</v>
+        <v>128282</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>176872</v>
+        <v>176251</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1155656161995074</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09900616427448246</v>
+        <v>0.09848030172927436</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1357828004891888</v>
+        <v>0.1353059542743178</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>83709</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68244</v>
+        <v>66315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104482</v>
+        <v>104273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1495779131260853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1219434865830812</v>
+        <v>0.1184968755747604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1866965547753222</v>
+        <v>0.1863219281191746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -2514,19 +2514,19 @@
         <v>152810</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129703</v>
+        <v>132960</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177227</v>
+        <v>177987</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2056734809295901</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1745720028286289</v>
+        <v>0.178956643631412</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2385364833988306</v>
+        <v>0.2395598669249426</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>216</v>
@@ -2535,19 +2535,19 @@
         <v>236520</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>207759</v>
+        <v>207890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265386</v>
+        <v>265733</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1815733218026092</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.159494486626437</v>
+        <v>0.1595950095226053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2037340375554767</v>
+        <v>0.204000066084368</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>420997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>398432</v>
+        <v>397822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441159</v>
+        <v>443466</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7522685980444506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7119470267056931</v>
+        <v>0.7108565115439353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7882950058111217</v>
+        <v>0.7924168999789841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>465</v>
@@ -2585,19 +2585,19 @@
         <v>494558</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>464219</v>
+        <v>467327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>521106</v>
+        <v>518344</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6656454260660947</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6248111696040231</v>
+        <v>0.6289937898126385</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7013772862082298</v>
+        <v>0.6976599656593261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>847</v>
@@ -2606,19 +2606,19 @@
         <v>915555</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>876943</v>
+        <v>881057</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>948796</v>
+        <v>948505</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7028610619978835</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6732190854028761</v>
+        <v>0.6763773833606554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7283798702316111</v>
+        <v>0.7281562228016596</v>
       </c>
     </row>
     <row r="15">
@@ -2948,19 +2948,19 @@
         <v>11941</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6106</v>
+        <v>6944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19441</v>
+        <v>20599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03571667485893815</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01826279661069155</v>
+        <v>0.02077025126134911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05814967481469426</v>
+        <v>0.06161402878287675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2969,19 +2969,19 @@
         <v>4240</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10712</v>
+        <v>9958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01122290248103536</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002872363339427921</v>
+        <v>0.002867051185773214</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02835587633990379</v>
+        <v>0.02635933923302499</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2990,19 +2990,19 @@
         <v>16181</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9924</v>
+        <v>8975</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24674</v>
+        <v>24778</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02272282507078548</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01393660595411102</v>
+        <v>0.01260347026912683</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03464964489908702</v>
+        <v>0.03479631426373885</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>19579</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12394</v>
+        <v>12253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30879</v>
+        <v>29416</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05856102994702279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0370699147141712</v>
+        <v>0.03664861926639814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09236021868933075</v>
+        <v>0.08798452057841243</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -3040,19 +3040,19 @@
         <v>59611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47237</v>
+        <v>46225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77662</v>
+        <v>75025</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1578009532209666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.125045542023018</v>
+        <v>0.1223658352124257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2055834616035012</v>
+        <v>0.198603438554996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -3061,19 +3061,19 @@
         <v>79190</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64157</v>
+        <v>63345</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>99496</v>
+        <v>98872</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1112074184295401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09009692582040699</v>
+        <v>0.08895629397319092</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1397236041138632</v>
+        <v>0.1388471944524791</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>302810</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>290175</v>
+        <v>290217</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>312440</v>
+        <v>312100</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.905722295194039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8679313689865417</v>
+        <v>0.8680552844516268</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9345260491921425</v>
+        <v>0.9335078164176337</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>295</v>
@@ -3111,19 +3111,19 @@
         <v>313911</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>297014</v>
+        <v>297343</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>327351</v>
+        <v>327901</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.830976144297998</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7862461432601047</v>
+        <v>0.7871169166846931</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8665539970787809</v>
+        <v>0.8680092815587256</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>589</v>
@@ -3132,19 +3132,19 @@
         <v>616721</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>595686</v>
+        <v>596983</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>633353</v>
+        <v>634358</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8660697564996744</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8365301859813816</v>
+        <v>0.8383511399443718</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8894259389300107</v>
+        <v>0.8908364556173423</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>33941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24721</v>
+        <v>24092</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43603</v>
+        <v>44895</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1320675079620571</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09619158947846251</v>
+        <v>0.09374439374271551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1696632096412158</v>
+        <v>0.1746900541324015</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -3257,19 +3257,19 @@
         <v>45866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32538</v>
+        <v>32460</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62432</v>
+        <v>61565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1146154970620068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08131057637943757</v>
+        <v>0.08111522688165494</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1560153259356539</v>
+        <v>0.153846711695798</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>74</v>
@@ -3278,19 +3278,19 @@
         <v>79807</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>63588</v>
+        <v>64640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>99810</v>
+        <v>98583</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.121440447055684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09676076961406309</v>
+        <v>0.09836220737345897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1518797879111703</v>
+        <v>0.1500116245747848</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>47763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36930</v>
+        <v>36806</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59537</v>
+        <v>60650</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1858507928998786</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1436960433215979</v>
+        <v>0.1432150109739881</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2316622917523375</v>
+        <v>0.2359945042405522</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>91</v>
@@ -3328,19 +3328,19 @@
         <v>123770</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>102722</v>
+        <v>105360</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>145699</v>
+        <v>144444</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3092949574069682</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2566968976186987</v>
+        <v>0.263289600179894</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3640934691588049</v>
+        <v>0.3609582216927769</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>147</v>
@@ -3349,19 +3349,19 @@
         <v>171534</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>148439</v>
+        <v>149570</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>196564</v>
+        <v>197091</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2610197039363369</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2258774267267304</v>
+        <v>0.227598199894829</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2991084944449945</v>
+        <v>0.2999100333905357</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>175294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161773</v>
+        <v>161716</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189961</v>
+        <v>189147</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6820816991380644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6294705116609269</v>
+        <v>0.6292484601623907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7391552709884432</v>
+        <v>0.7359875957877109</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>175</v>
@@ -3399,19 +3399,19 @@
         <v>230533</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>208733</v>
+        <v>209464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>251443</v>
+        <v>253454</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.576089545531025</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5216122199844976</v>
+        <v>0.5234398010201529</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6283423686370542</v>
+        <v>0.633366719320026</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>382</v>
@@ -3420,19 +3420,19 @@
         <v>405827</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378051</v>
+        <v>380278</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>430170</v>
+        <v>431165</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6175398490079791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5752739170169433</v>
+        <v>0.5786623881301084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6545825259741572</v>
+        <v>0.6560960445246622</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>45882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34554</v>
+        <v>34604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60055</v>
+        <v>58111</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07759186349835058</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05843532478887632</v>
+        <v>0.05851911868917877</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1015590074953629</v>
+        <v>0.09827147408490799</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -3545,19 +3545,19 @@
         <v>50105</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36495</v>
+        <v>34955</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68226</v>
+        <v>66474</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06440822492861693</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04691319378232423</v>
+        <v>0.04493320634590921</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08770226209862651</v>
+        <v>0.08545027688154556</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>90</v>
@@ -3566,19 +3566,19 @@
         <v>95987</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>76112</v>
+        <v>77294</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>115159</v>
+        <v>115569</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07010170922655461</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05558627333749796</v>
+        <v>0.05644918785304372</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08410310231503758</v>
+        <v>0.0844022402710557</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>67342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54812</v>
+        <v>54213</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84227</v>
+        <v>82250</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1138826360385054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09269363809526537</v>
+        <v>0.09167925221786186</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1424363291012773</v>
+        <v>0.1390929004959765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -3616,19 +3616,19 @@
         <v>183381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158358</v>
+        <v>158633</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>210250</v>
+        <v>211814</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2357297206937449</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2035624739112733</v>
+        <v>0.2039160049588874</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2702676662507321</v>
+        <v>0.2722790938214731</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>221</v>
@@ -3637,19 +3637,19 @@
         <v>250723</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220509</v>
+        <v>219475</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>280535</v>
+        <v>279484</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1831088558570275</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1610423623284679</v>
+        <v>0.1602876285642357</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.204880738817228</v>
+        <v>0.2041136384194364</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>478104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>460287</v>
+        <v>460615</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>496718</v>
+        <v>496080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.808525500463144</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7783961473533758</v>
+        <v>0.7789496811252513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8400044845095593</v>
+        <v>0.838925595324968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>470</v>
@@ -3687,19 +3687,19 @@
         <v>544444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>518484</v>
+        <v>515447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>571790</v>
+        <v>573374</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6998620543776382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6664908419405101</v>
+        <v>0.6625871670727933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7350141673984457</v>
+        <v>0.7370498950376828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>971</v>
@@ -3708,19 +3708,19 @@
         <v>1022548</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>989607</v>
+        <v>991180</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1056752</v>
+        <v>1055888</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7467894349164179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7227314337811309</v>
+        <v>0.723880935373575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7717689473154585</v>
+        <v>0.7711378992449791</v>
       </c>
     </row>
     <row r="15">
@@ -4050,19 +4050,19 @@
         <v>12442</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7912</v>
+        <v>7705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18553</v>
+        <v>19355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03062485775825412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01947520136937613</v>
+        <v>0.01896646488737645</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04566702483013222</v>
+        <v>0.04764017880480996</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -4071,19 +4071,19 @@
         <v>12110</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7484</v>
+        <v>7725</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17794</v>
+        <v>18301</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02763816416208268</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01708048368354161</v>
+        <v>0.01763108774825325</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04061018644532039</v>
+        <v>0.04176647145353242</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -4092,19 +4092,19 @@
         <v>24552</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18112</v>
+        <v>17979</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32512</v>
+        <v>33238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0290751032027147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02144875393003456</v>
+        <v>0.02129120361096056</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03850091587364295</v>
+        <v>0.03936098016321238</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>30943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22858</v>
+        <v>23071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39659</v>
+        <v>41381</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07616432877589355</v>
+        <v>0.07616432877589353</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05626245353383595</v>
+        <v>0.05678857018027676</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09761780531077312</v>
+        <v>0.1018556806472742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -4142,19 +4142,19 @@
         <v>55732</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45724</v>
+        <v>46413</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65639</v>
+        <v>66617</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1271940666651399</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1043542361838164</v>
+        <v>0.1059261504329761</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.149804398810245</v>
+        <v>0.1520349032873362</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -4163,19 +4163,19 @@
         <v>86675</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>74770</v>
+        <v>74442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100421</v>
+        <v>100943</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1026429634986576</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08854429775053271</v>
+        <v>0.08815628748563477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1189206226751693</v>
+        <v>0.1195388714773503</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>362884</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>353058</v>
+        <v>351710</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>372655</v>
+        <v>372765</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8932108134658524</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8690255965931487</v>
+        <v>0.8657071117583895</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9172611532940963</v>
+        <v>0.9175334079005139</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>701</v>
@@ -4213,19 +4213,19 @@
         <v>370324</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>358873</v>
+        <v>358863</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>380716</v>
+        <v>380800</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8451677691727775</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8190344587732559</v>
+        <v>0.8190112600158288</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8688861740286946</v>
+        <v>0.8690770314235273</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1203</v>
@@ -4234,19 +4234,19 @@
         <v>733208</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>717799</v>
+        <v>717578</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>746555</v>
+        <v>747754</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8682819332986278</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8500342201834663</v>
+        <v>0.8497724268791408</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8840883483034709</v>
+        <v>0.8855075242734595</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>38984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29805</v>
+        <v>30177</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48602</v>
+        <v>49151</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1263002342842119</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09656285245214553</v>
+        <v>0.09776766404337421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1574611809327414</v>
+        <v>0.1592408199634784</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>177</v>
@@ -4359,19 +4359,19 @@
         <v>95518</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82787</v>
+        <v>82465</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110202</v>
+        <v>108374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2055889387718136</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1781863755520326</v>
+        <v>0.1774941673507985</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2371932035070351</v>
+        <v>0.2332576806895372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>243</v>
@@ -4380,19 +4380,19 @@
         <v>134502</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>117533</v>
+        <v>119317</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>151697</v>
+        <v>151265</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1739399346400483</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1519949469897199</v>
+        <v>0.1543018713851807</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1961767035509124</v>
+        <v>0.1956177769253814</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>61890</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49496</v>
+        <v>50305</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>74405</v>
+        <v>75028</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2005138410212895</v>
+        <v>0.2005138410212896</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1603594550984014</v>
+        <v>0.162978425209855</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2410598387490492</v>
+        <v>0.2430787853844402</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>281</v>
@@ -4430,19 +4430,19 @@
         <v>147606</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>133755</v>
+        <v>132764</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>162842</v>
+        <v>162642</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3176987362801629</v>
+        <v>0.3176987362801628</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2878877797151799</v>
+        <v>0.2857552594853395</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3504935324117128</v>
+        <v>0.3500629621123314</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>372</v>
@@ -4451,19 +4451,19 @@
         <v>209496</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>191580</v>
+        <v>190840</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>228934</v>
+        <v>228305</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2709230289685556</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2477539351720555</v>
+        <v>0.2467970474762974</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2960605590855581</v>
+        <v>0.2952475712869059</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>207785</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>193565</v>
+        <v>193733</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221589</v>
+        <v>220510</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6731859246944982</v>
+        <v>0.6731859246944983</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6271153200622521</v>
+        <v>0.6276597432677474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7179093019146647</v>
+        <v>0.7144128633085999</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>423</v>
@@ -4501,19 +4501,19 @@
         <v>221485</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>205582</v>
+        <v>206468</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>238108</v>
+        <v>236757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4767123249480235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4424832943255426</v>
+        <v>0.4443904639227692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5124905932096357</v>
+        <v>0.5095843092708291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>722</v>
@@ -4522,19 +4522,19 @@
         <v>429270</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>407327</v>
+        <v>408151</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>449587</v>
+        <v>450028</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5551370363913961</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5267605015840248</v>
+        <v>0.527826379254893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5814118203799047</v>
+        <v>0.5819815309828346</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>51426</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40640</v>
+        <v>41442</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63413</v>
+        <v>63445</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07193117619225117</v>
+        <v>0.07193117619225116</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05684530273379992</v>
+        <v>0.05796612117755044</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08869855538740282</v>
+        <v>0.08874317610559401</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>199</v>
@@ -4647,19 +4647,19 @@
         <v>107629</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>92640</v>
+        <v>93120</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>123193</v>
+        <v>122332</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1192197249627257</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1026174707402342</v>
+        <v>0.1031484182613378</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1364605057783817</v>
+        <v>0.135506281015206</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>285</v>
@@ -4668,19 +4668,19 @@
         <v>159054</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>140871</v>
+        <v>141769</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177688</v>
+        <v>180190</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0983210113498859</v>
+        <v>0.09832101134988588</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0870807464385116</v>
+        <v>0.08763591324859904</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1098396580827175</v>
+        <v>0.1113861999908079</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>92834</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78263</v>
+        <v>77922</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109129</v>
+        <v>108829</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1298502481464536</v>
+        <v>0.1298502481464535</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1094701808025342</v>
+        <v>0.1089923798055436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1526429487144811</v>
+        <v>0.1522241598138541</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>383</v>
@@ -4718,19 +4718,19 @@
         <v>203338</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>184929</v>
+        <v>182907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>220606</v>
+        <v>221352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2252364327150632</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2048452064042889</v>
+        <v>0.2026057181177667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2443646418117703</v>
+        <v>0.245190172992057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>521</v>
@@ -4739,19 +4739,19 @@
         <v>296171</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>272409</v>
+        <v>270584</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>322343</v>
+        <v>319044</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1830814373567471</v>
+        <v>0.1830814373567472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1683926997928995</v>
+        <v>0.1672646336207207</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1992594016729174</v>
+        <v>0.1972202408210191</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>570669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>552622</v>
+        <v>553168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>588253</v>
+        <v>588875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7982185756612954</v>
+        <v>0.7982185756612953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7729756634959208</v>
+        <v>0.7737388170301551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8228136459815977</v>
+        <v>0.8236842432666375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1124</v>
@@ -4789,19 +4789,19 @@
         <v>591809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>572198</v>
+        <v>570207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>615546</v>
+        <v>612568</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6555438423222111</v>
+        <v>0.655543842322211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6338213339788419</v>
+        <v>0.631615683358306</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6818376415597005</v>
+        <v>0.6785393477624397</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1925</v>
@@ -4810,19 +4810,19 @@
         <v>1162477</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1136149</v>
+        <v>1133938</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1191494</v>
+        <v>1189295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.718597551293367</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7023222780998154</v>
+        <v>0.700955552544278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7365342147867074</v>
+        <v>0.7351753896501299</v>
       </c>
     </row>
     <row r="15">
